--- a/app/exports/qachecklistfusetest_validation_summary.xlsx
+++ b/app/exports/qachecklistfusetest_validation_summary.xlsx
@@ -129,8 +129,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="AnomalyTable" displayName="AnomalyTable" ref="A1:C15" headerRowCount="1">
-  <autoFilter ref="A1:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="AnomalyTable" displayName="AnomalyTable" ref="A1:C11" headerRowCount="1">
+  <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Page"/>
     <tableColumn id="2" name="Field"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OEM Part Number</t>
+          <t>FAI Form 3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OEM Lot Number</t>
+          <t>Solderability Test Report</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OEM Date Code</t>
+          <t>Visual Inspection Record</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OEM Cage Code</t>
+          <t>Reel Labels</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FAI Form 3</t>
+          <t>Certificate of Conformance</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Solderability Test Report</t>
+          <t>Route Sheet</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Visual Inspection Record</t>
+          <t>Resistance</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Reel Labels</t>
+          <t>Dimension</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -600,70 +600,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Certificate of Conformance</t>
+          <t>Test Result</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Route Sheet</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Resistance</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Dimension</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Test Result</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
